--- a/outputData.xlsx
+++ b/outputData.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Krishna</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NRT</t>
+          <t>BGL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mallikarjun</t>
+          <t>Roshan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NRT</t>
+          <t>BGL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
